--- a/CSV Data/Thoughtleader List_GermanSpeaking.xlsx
+++ b/CSV Data/Thoughtleader List_GermanSpeaking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissThoughtleaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissThoughtleaders_2/CSV Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{BB98D7CC-38A1-45D8-B8F1-8E434B63C793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7FA891-9F57-4E49-8CBA-756AEFE8B1CB}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{BB98D7CC-38A1-45D8-B8F1-8E434B63C793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E9530B-DA99-4D23-A4AD-90B2D8FE74CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Hans-Werner Sinn</t>
   </si>
   <si>
-    <t>@Hans-Werner Sinn</t>
-  </si>
-  <si>
     <t>Heike Behrend</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>@rezomusik</t>
+  </si>
+  <si>
+    <t>@HansWernerSinn</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55:I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -800,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -901,7 +901,7 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -935,7 +935,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1102,16 +1102,16 @@
     </row>
     <row r="18" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A18" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="37">
         <v>20500</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>7</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="19" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A19" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="41">
         <v>44400</v>
@@ -1180,32 +1180,31 @@
       <c r="E20" s="13">
         <v>7980</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>36</v>
+      <c r="F20" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="19">
         <v>1910</v>
       </c>
-      <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:26" ht="12.75">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1213,16 +1212,16 @@
         <v>15800</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1">
       <c r="A23" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1230,7 +1229,7 @@
         <v>2590</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -1238,16 +1237,16 @@
     </row>
     <row r="24" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A24" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="37">
         <v>54200</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>7</v>
@@ -1274,16 +1273,16 @@
     </row>
     <row r="25" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A25" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="41">
         <v>12800</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>7</v>
@@ -1310,16 +1309,16 @@
     </row>
     <row r="26" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A26" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="37">
         <v>5730</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>7</v>
@@ -1346,10 +1345,10 @@
     </row>
     <row r="27" spans="1:26" ht="12.75">
       <c r="A27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1357,7 +1356,7 @@
         <v>3640</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>7</v>
@@ -1365,10 +1364,10 @@
     </row>
     <row r="28" spans="1:26" ht="12.75">
       <c r="A28" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1376,7 +1375,7 @@
         <v>77400</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>7</v>
@@ -1384,10 +1383,10 @@
     </row>
     <row r="29" spans="1:26" ht="12.75">
       <c r="A29" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1395,7 +1394,7 @@
         <v>1090</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>7</v>
@@ -1403,10 +1402,10 @@
     </row>
     <row r="30" spans="1:26" ht="12.75">
       <c r="A30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1414,7 +1413,7 @@
         <v>17400</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>7</v>
@@ -1422,7 +1421,7 @@
     </row>
     <row r="31" spans="1:26" ht="12.75">
       <c r="A31" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1431,7 +1430,7 @@
         <v>404</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>7</v>
@@ -1440,7 +1439,7 @@
     </row>
     <row r="32" spans="1:26" ht="12.75">
       <c r="A32" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1449,16 +1448,16 @@
         <v>381</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="12.75">
       <c r="A33" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1466,7 +1465,7 @@
         <v>24000</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>7</v>
@@ -1474,10 +1473,10 @@
     </row>
     <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1485,7 +1484,7 @@
         <v>13100</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>7</v>
@@ -1493,10 +1492,10 @@
     </row>
     <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1504,16 +1503,16 @@
         <v>5110</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1521,16 +1520,16 @@
         <v>2100</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1542,10 +1541,10 @@
     </row>
     <row r="38" spans="1:26" ht="12.75">
       <c r="A38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1553,16 +1552,16 @@
         <v>16500</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:26" ht="12.75">
       <c r="A39" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1574,10 +1573,10 @@
     </row>
     <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1585,16 +1584,16 @@
         <v>8510</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1605,11 +1604,11 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1620,16 +1619,16 @@
     </row>
     <row r="43" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A43" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="40">
         <v>509</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>7</v>
@@ -1656,25 +1655,25 @@
     </row>
     <row r="44" spans="1:26" ht="12.75">
       <c r="A44" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="13">
         <v>20300</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -1682,16 +1681,16 @@
         <v>669</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1699,16 +1698,16 @@
         <v>651</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1">
       <c r="A47" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1716,7 +1715,7 @@
         <v>41800</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>7</v>
@@ -1724,14 +1723,14 @@
     </row>
     <row r="48" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A48" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="38"/>
       <c r="E48" s="40">
         <v>430</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
@@ -1756,16 +1755,16 @@
     </row>
     <row r="49" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="39">
         <v>1880</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>7</v>
@@ -1792,10 +1791,10 @@
     </row>
     <row r="50" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A50" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="37">
         <v>3730</v>
@@ -1824,10 +1823,10 @@
     </row>
     <row r="51" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A51" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="37">
         <v>12400</v>
@@ -1856,10 +1855,10 @@
     </row>
     <row r="52" spans="1:26" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A52" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="37">
         <v>37300</v>
@@ -1888,16 +1887,16 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="37">
         <v>5480</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>7</v>
@@ -1924,16 +1923,16 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="37">
         <v>7830</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>7</v>
@@ -1960,16 +1959,16 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="37">
         <v>169000</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>7</v>
